--- a/auca/sem-2/CM/CM-SUM25D NEW STUDENTs.xlsx
+++ b/auca/sem-2/CM/CM-SUM25D NEW STUDENTs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7510"/>
+    <workbookView windowWidth="17780" windowHeight="6530"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>CM-SUM25D NEW STUDENTs</t>
   </si>
@@ -84,6 +84,36 @@
   </si>
   <si>
     <t>Walnadjo Allazit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UMUGWANEZA Henriette </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mucyo stone </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shimwa Syntiche </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuyiramye Mike </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Munyaneza christelle </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bahati prince David </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kayiganwa angel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ntakirutimana Elie </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Walnadjo Allazit </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nsengiyumva George </t>
   </si>
 </sst>
 </file>
@@ -272,6 +302,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -429,12 +465,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -604,7 +634,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -628,16 +658,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -646,78 +676,78 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -728,7 +758,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -744,14 +774,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1286,95 +1319,129 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="26.9090909090909" style="1" customWidth="1"/>
     <col min="2" max="16384" width="8.72727272727273" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="D1"/>
+      <c r="E1"/>
+      <c r="F1"/>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="5">
         <v>29405</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="6">
         <v>29300</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="7">
         <v>29354</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="7">
         <v>29192</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="7">
         <v>29335</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="7">
         <v>29374</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="7">
         <v>29460</v>
       </c>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="7" t="s">
@@ -1401,51 +1468,131 @@
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="8">
         <v>29169</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="8">
         <v>29167</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="8">
         <v>29119</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="8">
         <v>28878</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="8">
         <v>29041</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="8">
         <v>25822</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1">
+        <v>29312</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1">
+        <v>29084</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1">
+        <v>29086</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1">
+        <v>28706</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1">
+        <v>29381</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1">
+        <v>28496</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1">
+        <v>29130</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1">
+        <v>29177</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1">
+        <v>25822</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1">
+        <v>28491</v>
       </c>
     </row>
   </sheetData>
